--- a/cif-form_fields.xlsx
+++ b/cif-form_fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Header Section" sheetId="1" r:id="rId1"/>
@@ -2638,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
